--- a/raw_data/20200818_saline/20200818_Sensor2_Test_12.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_12.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35034F61-D304-4A9A-9500-F9432497EA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>10271.622354</v>
+        <v>10271.622353999999</v>
       </c>
       <c r="B2" s="1">
-        <v>2.853228</v>
+        <v>2.8532280000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.146000</v>
+        <v>-306.14600000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>10281.983816</v>
       </c>
       <c r="G2" s="1">
-        <v>2.856107</v>
+        <v>2.8561070000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.390000</v>
+        <v>1269.3900000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.409000</v>
+        <v>-264.40899999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>10292.204838</v>
@@ -511,103 +927,103 @@
         <v>2.858946</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.970000</v>
+        <v>1304.97</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.457000</v>
+        <v>-202.45699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>10302.398618</v>
+        <v>10302.398617999999</v>
       </c>
       <c r="Q2" s="1">
         <v>2.861777</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.020000</v>
+        <v>1317.02</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.357000</v>
+        <v>-184.357</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>10312.955973</v>
       </c>
       <c r="V2" s="1">
-        <v>2.864710</v>
+        <v>2.8647100000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.836000</v>
+        <v>-170.83600000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>10322.788654</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.867441</v>
+        <v>2.8674409999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.050000</v>
+        <v>1347.05</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.066000</v>
+        <v>-169.066</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>10333.029552</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.870286</v>
+        <v>2.8702860000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1359.850000</v>
+        <v>1359.85</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.879000</v>
+        <v>-178.87899999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>10343.408834</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.873169</v>
+        <v>2.8731689999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.146000</v>
+        <v>-209.14599999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>10353.655718</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.876015</v>
+        <v>2.8760150000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1401.910000</v>
+        <v>1401.91</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.441000</v>
+        <v>-253.441</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>10364.710534</v>
@@ -616,180 +1032,180 @@
         <v>2.879086</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.350000</v>
+        <v>1426.35</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.934000</v>
+        <v>-313.93400000000003</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>10375.831817</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.882176</v>
+        <v>2.8821759999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1445.610000</v>
+        <v>1445.61</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.573000</v>
+        <v>-366.57299999999998</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>10386.767149</v>
+        <v>10386.767148999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.885213</v>
+        <v>2.8852129999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1530.330000</v>
+        <v>1530.33</v>
       </c>
       <c r="BG2" s="1">
-        <v>-617.400000</v>
+        <v>-617.4</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>10397.778796</v>
+        <v>10397.778796000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.888272</v>
+        <v>2.8882720000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.770000</v>
+        <v>1683.77</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1068.320000</v>
+        <v>-1068.32</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>10408.522142</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.891256</v>
+        <v>2.8912559999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1977.910000</v>
+        <v>1977.91</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1851.740000</v>
+        <v>-1851.74</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>10419.569055</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.894325</v>
+        <v>2.8943249999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>2366.940000</v>
+        <v>2366.94</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2761.400000</v>
+        <v>-2761.4</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>10430.690336</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.897414</v>
+        <v>2.8974139999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2852.850000</v>
+        <v>2852.85</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3750.030000</v>
+        <v>-3750.03</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>10441.978786</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.900550</v>
+        <v>2.90055</v>
       </c>
       <c r="CE2" s="1">
-        <v>4307.020000</v>
+        <v>4307.0200000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6146.510000</v>
+        <v>-6146.51</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>10271.997859</v>
+        <v>10271.997858999999</v>
       </c>
       <c r="B3" s="1">
-        <v>2.853333</v>
+        <v>2.8533330000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1244.220000</v>
+        <v>1244.22</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.155000</v>
+        <v>-306.15499999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>10282.404883</v>
+        <v>10282.404882999999</v>
       </c>
       <c r="G3" s="1">
-        <v>2.856224</v>
+        <v>2.8562240000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1270.540000</v>
+        <v>1270.54</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.400000</v>
+        <v>-264.39999999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>10292.552038</v>
       </c>
       <c r="L3" s="1">
-        <v>2.859042</v>
+        <v>2.8590420000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.990000</v>
+        <v>1304.99</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.005000</v>
+        <v>-202.005</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>10302.764701</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.861879</v>
+        <v>2.8618790000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.970000</v>
+        <v>1316.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.400000</v>
+        <v>-184.4</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>10313.331434</v>
@@ -798,13 +1214,13 @@
         <v>2.864814</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.848000</v>
+        <v>-170.84800000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>10323.202318</v>
@@ -813,255 +1229,255 @@
         <v>2.867556</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.990000</v>
+        <v>1346.99</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.915000</v>
+        <v>-168.91499999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>10333.441264</v>
+        <v>10333.441263999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.870400</v>
+        <v>2.8704000000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1359.860000</v>
+        <v>1359.86</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.913000</v>
+        <v>-178.91300000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>10343.518946</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.873200</v>
+        <v>2.8732000000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.360000</v>
+        <v>1380.36</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.145000</v>
+        <v>-209.14500000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>10354.107076</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.876141</v>
+        <v>2.8761410000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1401.900000</v>
+        <v>1401.9</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.462000</v>
+        <v>-253.46199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>10365.068134</v>
+        <v>10365.068133999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.879186</v>
+        <v>2.8791859999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.370000</v>
+        <v>1426.37</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.965000</v>
+        <v>-313.96499999999997</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>10376.230599</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.882286</v>
+        <v>2.8822860000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.574000</v>
+        <v>-366.57400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>10387.142585</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.885317</v>
+        <v>2.8853170000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1530.320000</v>
+        <v>1530.32</v>
       </c>
       <c r="BG3" s="1">
-        <v>-617.393000</v>
+        <v>-617.39300000000003</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>10398.532745</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.888481</v>
+        <v>2.8884810000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.750000</v>
+        <v>1683.75</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1068.370000</v>
+        <v>-1068.3699999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>10408.944273</v>
+        <v>10408.944272999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.891373</v>
+        <v>2.8913730000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1977.700000</v>
+        <v>1977.7</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1851.870000</v>
+        <v>-1851.87</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>10420.046717</v>
+        <v>10420.046716999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.894457</v>
+        <v>2.8944570000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2366.370000</v>
+        <v>2366.37</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2761.260000</v>
+        <v>-2761.26</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>10431.407071</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.897613</v>
+        <v>2.8976130000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2852.730000</v>
+        <v>2852.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3750.270000</v>
+        <v>-3750.27</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>10442.570824</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.900714</v>
+        <v>2.9007139999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>4286.990000</v>
+        <v>4286.99</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6139.630000</v>
+        <v>-6139.63</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>10272.340598</v>
+        <v>10272.340598000001</v>
       </c>
       <c r="B4" s="1">
-        <v>2.853428</v>
+        <v>2.8534280000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1244.230000</v>
+        <v>1244.23</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.266000</v>
+        <v>-306.26600000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>10282.746628</v>
+        <v>10282.746628000001</v>
       </c>
       <c r="G4" s="1">
-        <v>2.856319</v>
+        <v>2.8563190000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.670000</v>
+        <v>1269.67</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.309000</v>
+        <v>-265.30900000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>10292.898742</v>
+        <v>10292.898741999999</v>
       </c>
       <c r="L4" s="1">
-        <v>2.859139</v>
+        <v>2.8591389999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.664000</v>
+        <v>-202.66399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>10303.447159</v>
+        <v>10303.447158999999</v>
       </c>
       <c r="Q4" s="1">
         <v>2.862069</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.920000</v>
+        <v>1316.92</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.300000</v>
+        <v>-184.3</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>10313.743114</v>
+        <v>10313.743114000001</v>
       </c>
       <c r="V4" s="1">
-        <v>2.864929</v>
+        <v>2.8649290000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1329.970000</v>
+        <v>1329.97</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.998000</v>
+        <v>-170.99799999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>10323.523728</v>
@@ -1070,270 +1486,270 @@
         <v>2.867645</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.120000</v>
+        <v>1347.12</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.040000</v>
+        <v>-169.04</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>10333.757212</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.870488</v>
+        <v>2.8704879999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1359.830000</v>
+        <v>1359.83</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.895000</v>
+        <v>-178.89500000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>10343.859699</v>
+        <v>10343.859699000001</v>
       </c>
       <c r="AK4" s="1">
         <v>2.873294</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.370000</v>
+        <v>1380.37</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.158000</v>
+        <v>-209.15799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>10354.466676</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.876241</v>
+        <v>2.8762409999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1401.910000</v>
+        <v>1401.91</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.428000</v>
+        <v>-253.428</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>10365.444379</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.879290</v>
+        <v>2.8792900000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.963000</v>
+        <v>-313.96300000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>10376.946358</v>
+        <v>10376.946357999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>2.882485</v>
       </c>
       <c r="BA4" s="1">
-        <v>1445.640000</v>
+        <v>1445.64</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.554000</v>
+        <v>-366.55399999999997</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>10387.868265</v>
+        <v>10387.868264999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.885519</v>
+        <v>2.8855189999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1530.310000</v>
+        <v>1530.31</v>
       </c>
       <c r="BG4" s="1">
-        <v>-617.344000</v>
+        <v>-617.34400000000005</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>10398.936458</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.888593</v>
+        <v>2.8885930000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.680000</v>
+        <v>1683.68</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1068.320000</v>
+        <v>-1068.32</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>10409.350460</v>
+        <v>10409.35046</v>
       </c>
       <c r="BO4" s="1">
         <v>2.891486</v>
       </c>
       <c r="BP4" s="1">
-        <v>1977.570000</v>
+        <v>1977.57</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1851.990000</v>
+        <v>-1851.99</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>10420.458899</v>
+        <v>10420.458898999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.894572</v>
+        <v>2.8945720000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2365.790000</v>
+        <v>2365.79</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2761.300000</v>
+        <v>-2761.3</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>10432.210109</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.897836</v>
+        <v>2.8978359999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.460000</v>
+        <v>2853.46</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3750.350000</v>
+        <v>-3750.35</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>10443.415726</v>
+        <v>10443.415725999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.900949</v>
+        <v>2.9009490000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>4301.960000</v>
+        <v>4301.96</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6143.210000</v>
+        <v>-6143.21</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>10272.679360</v>
+        <v>10272.67936</v>
       </c>
       <c r="B5" s="1">
-        <v>2.853522</v>
+        <v>2.8535219999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1243.950000</v>
+        <v>1243.95</v>
       </c>
       <c r="D5" s="1">
-        <v>-306.492000</v>
+        <v>-306.49200000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>10283.090852</v>
+        <v>10283.090851999999</v>
       </c>
       <c r="G5" s="1">
         <v>2.856414</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.580000</v>
+        <v>1269.58</v>
       </c>
       <c r="I5" s="1">
-        <v>-264.576000</v>
+        <v>-264.57600000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>10293.306453</v>
+        <v>10293.306452999999</v>
       </c>
       <c r="L5" s="1">
-        <v>2.859252</v>
+        <v>2.8592520000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.950000</v>
+        <v>1304.95</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.608000</v>
+        <v>-202.608</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>10303.809240</v>
+        <v>10303.809240000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.862169</v>
+        <v>2.8621690000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.980000</v>
+        <v>1316.98</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.237000</v>
+        <v>-184.23699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>10314.053611</v>
+        <v>10314.053610999999</v>
       </c>
       <c r="V5" s="1">
-        <v>2.865015</v>
+        <v>2.8650150000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.840000</v>
+        <v>1329.84</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.036000</v>
+        <v>-171.036</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>10323.872413</v>
+        <v>10323.872412999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.867742</v>
+        <v>2.8677419999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.890000</v>
+        <v>1346.89</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.013000</v>
+        <v>-169.01300000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>10334.100945</v>
@@ -1342,210 +1758,210 @@
         <v>2.870584</v>
       </c>
       <c r="AG5" s="1">
-        <v>1359.830000</v>
+        <v>1359.83</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.882000</v>
+        <v>-178.88200000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>10344.210371</v>
+        <v>10344.210370999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.873392</v>
+        <v>2.8733919999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.370000</v>
+        <v>1380.37</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.157000</v>
+        <v>-209.15700000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>10354.828723</v>
+        <v>10354.828723000001</v>
       </c>
       <c r="AP5" s="1">
         <v>2.876341</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1401.910000</v>
+        <v>1401.91</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.431000</v>
+        <v>-253.43100000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>10366.174212</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.879493</v>
+        <v>2.8794930000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.380000</v>
+        <v>1426.38</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.934000</v>
+        <v>-313.93400000000003</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>10377.308407</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.882586</v>
+        <v>2.8825859999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.576000</v>
+        <v>-366.57600000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>10388.242249</v>
+        <v>10388.242249000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.885623</v>
+        <v>2.8856229999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1530.300000</v>
+        <v>1530.3</v>
       </c>
       <c r="BG5" s="1">
-        <v>-617.414000</v>
+        <v>-617.41399999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>10399.311434</v>
+        <v>10399.311433999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.888698</v>
+        <v>2.8886980000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.660000</v>
+        <v>1683.66</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1068.330000</v>
+        <v>-1068.33</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>10409.747260</v>
+        <v>10409.74726</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.891596</v>
+        <v>2.8915959999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1977.430000</v>
+        <v>1977.43</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1851.980000</v>
+        <v>-1851.98</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>10421.198423</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.894777</v>
+        <v>2.8947769999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2365.270000</v>
+        <v>2365.27</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2760.970000</v>
+        <v>-2760.97</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>10432.345022</v>
       </c>
       <c r="BY5" s="1">
-        <v>2.897874</v>
+        <v>2.8978739999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.510000</v>
+        <v>2853.51</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3749.600000</v>
+        <v>-3749.6</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>10443.649806</v>
+        <v>10443.649805999999</v>
       </c>
       <c r="CD5" s="1">
         <v>2.901014</v>
       </c>
       <c r="CE5" s="1">
-        <v>4303.770000</v>
+        <v>4303.7700000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6143.830000</v>
+        <v>-6143.83</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>10273.106385</v>
+        <v>10273.106384999999</v>
       </c>
       <c r="B6" s="1">
-        <v>2.853641</v>
+        <v>2.8536410000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1243.950000</v>
+        <v>1243.95</v>
       </c>
       <c r="D6" s="1">
-        <v>-306.593000</v>
+        <v>-306.59300000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>10283.513443</v>
       </c>
       <c r="G6" s="1">
-        <v>2.856532</v>
+        <v>2.8565320000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.290000</v>
+        <v>1270.29</v>
       </c>
       <c r="I6" s="1">
-        <v>-265.104000</v>
+        <v>-265.10399999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>10293.598100</v>
+        <v>10293.598099999999</v>
       </c>
       <c r="L6" s="1">
-        <v>2.859333</v>
+        <v>2.8593329999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.270000</v>
+        <v>1305.27</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.713000</v>
+        <v>-202.71299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>10304.158457</v>
@@ -1554,28 +1970,28 @@
         <v>2.862266</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.000000</v>
+        <v>1317</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.278000</v>
+        <v>-184.27799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>10314.393897</v>
       </c>
       <c r="V6" s="1">
-        <v>2.865109</v>
+        <v>2.8651089999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.920000</v>
+        <v>1329.92</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.954000</v>
+        <v>-170.95400000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>10324.220604</v>
@@ -1584,13 +2000,13 @@
         <v>2.867839</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.130000</v>
+        <v>1347.13</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.010000</v>
+        <v>-169.01</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>10334.444142</v>
@@ -1599,28 +2015,28 @@
         <v>2.870679</v>
       </c>
       <c r="AG6" s="1">
-        <v>1359.880000</v>
+        <v>1359.88</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.928000</v>
+        <v>-178.928</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>10344.907745</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.873585</v>
+        <v>2.8735849999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.380000</v>
+        <v>1380.38</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.165000</v>
+        <v>-209.16499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>10355.547427</v>
@@ -1629,407 +2045,407 @@
         <v>2.876541</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1401.890000</v>
+        <v>1401.89</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.443000</v>
+        <v>-253.44300000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>10366.566548</v>
+        <v>10366.566548000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.879602</v>
+        <v>2.8796020000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.370000</v>
+        <v>1426.37</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.960000</v>
+        <v>-313.95999999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>10377.663077</v>
+        <v>10377.663076999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.882684</v>
+        <v>2.8826839999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1445.600000</v>
+        <v>1445.6</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.538000</v>
+        <v>-366.53800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>10388.626121</v>
+        <v>10388.626120999999</v>
       </c>
       <c r="BE6" s="1">
         <v>2.885729</v>
       </c>
       <c r="BF6" s="1">
-        <v>1530.250000</v>
+        <v>1530.25</v>
       </c>
       <c r="BG6" s="1">
-        <v>-617.362000</v>
+        <v>-617.36199999999997</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>10399.977560</v>
+        <v>10399.977559999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.888883</v>
+        <v>2.8888829999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.730000</v>
+        <v>1683.73</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1068.320000</v>
+        <v>-1068.32</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>10410.466954</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.891796</v>
+        <v>2.8917959999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1977.360000</v>
+        <v>1977.36</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1851.910000</v>
+        <v>-1851.91</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>10421.318955</v>
+        <v>10421.318955000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.894811</v>
+        <v>2.8948109999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>2364.940000</v>
+        <v>2364.94</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2761.330000</v>
+        <v>-2761.33</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>10432.767581</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.897991</v>
+        <v>2.8979910000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.270000</v>
+        <v>2853.27</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3749.850000</v>
+        <v>-3749.85</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>10444.171636</v>
+        <v>10444.171635999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.901159</v>
+        <v>2.9011589999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>4288.570000</v>
+        <v>4288.57</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6134.620000</v>
+        <v>-6134.62</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>10273.382655</v>
+        <v>10273.382654999999</v>
       </c>
       <c r="B7" s="1">
-        <v>2.853717</v>
+        <v>2.8537170000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-306.361000</v>
+        <v>-306.36099999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>10283.786242</v>
       </c>
       <c r="G7" s="1">
-        <v>2.856607</v>
+        <v>2.8566069999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.330000</v>
+        <v>1269.33</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.402000</v>
+        <v>-264.40199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>10293.941861</v>
+        <v>10293.941860999999</v>
       </c>
       <c r="L7" s="1">
-        <v>2.859428</v>
+        <v>2.8594279999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.300000</v>
+        <v>1305.3</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.247000</v>
+        <v>-202.24700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>10304.506646</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.862363</v>
+        <v>2.8623630000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.990000</v>
+        <v>1316.99</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.403000</v>
+        <v>-184.40299999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>10314.737096</v>
+        <v>10314.737096000001</v>
       </c>
       <c r="V7" s="1">
         <v>2.865205</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.750000</v>
+        <v>1329.75</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.878000</v>
+        <v>-170.87799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>10324.920460</v>
+        <v>10324.920459999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.868033</v>
+        <v>2.8680330000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.970000</v>
+        <v>1346.97</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.088000</v>
+        <v>-169.08799999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>10335.130365</v>
+        <v>10335.130365000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.870870</v>
+        <v>2.87087</v>
       </c>
       <c r="AG7" s="1">
-        <v>1359.860000</v>
+        <v>1359.86</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.905000</v>
+        <v>-178.905</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>10345.255938</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.873682</v>
+        <v>2.8736820000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.370000</v>
+        <v>1380.37</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.125000</v>
+        <v>-209.125</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>10355.908546</v>
+        <v>10355.908546000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.876641</v>
+        <v>2.8766409999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1401.920000</v>
+        <v>1401.92</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.455000</v>
+        <v>-253.45500000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>10366.930644</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.879703</v>
+        <v>2.8797030000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.390000</v>
+        <v>1426.39</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.944000</v>
+        <v>-313.94400000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>10378.320245</v>
+        <v>10378.320245000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.882867</v>
+        <v>2.8828670000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.548000</v>
+        <v>-366.548</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>10389.297702</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.885916</v>
+        <v>2.8859159999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-617.371000</v>
+        <v>-617.37099999999998</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>10400.086215</v>
+        <v>10400.086214999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.888913</v>
+        <v>2.8889130000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.670000</v>
+        <v>1683.67</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1068.290000</v>
+        <v>-1068.29</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>10410.988251</v>
+        <v>10410.988251000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.891941</v>
+        <v>2.8919410000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1977.470000</v>
+        <v>1977.47</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1852.020000</v>
+        <v>-1852.02</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>10421.731595</v>
+        <v>10421.731594999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.894925</v>
+        <v>2.8949250000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>2364.690000</v>
+        <v>2364.69</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2760.920000</v>
+        <v>-2760.92</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>10433.188349</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.898108</v>
+        <v>2.8981080000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2852.930000</v>
+        <v>2852.93</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3750.050000</v>
+        <v>-3750.05</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>10444.689422</v>
+        <v>10444.689421999999</v>
       </c>
       <c r="CD7" s="1">
         <v>2.901303</v>
       </c>
       <c r="CE7" s="1">
-        <v>4297.960000</v>
+        <v>4297.96</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6134.050000</v>
+        <v>-6134.05</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>10273.723444</v>
+        <v>10273.723443999999</v>
       </c>
       <c r="B8" s="1">
         <v>2.853812</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.600000</v>
+        <v>-306.60000000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>10284.131953</v>
@@ -2038,73 +2454,73 @@
         <v>2.856703</v>
       </c>
       <c r="H8" s="1">
-        <v>1270.100000</v>
+        <v>1270.0999999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-264.348000</v>
+        <v>-264.34800000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>10294.278612</v>
       </c>
       <c r="L8" s="1">
-        <v>2.859522</v>
+        <v>2.8595220000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.350000</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.386000</v>
+        <v>-202.386</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>10305.205505</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.862557</v>
+        <v>2.8625569999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.960000</v>
+        <v>1316.96</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.424000</v>
+        <v>-184.42400000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>10315.424057</v>
       </c>
       <c r="V8" s="1">
-        <v>2.865396</v>
+        <v>2.8653960000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.900000</v>
+        <v>1329.9</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.955000</v>
+        <v>-170.95500000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>10325.267690</v>
+        <v>10325.267690000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.868130</v>
+        <v>2.8681299999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.040000</v>
+        <v>1347.04</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.711000</v>
+        <v>-168.71100000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>10335.473838</v>
@@ -2113,73 +2529,73 @@
         <v>2.870965</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.860000</v>
+        <v>1359.86</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.841000</v>
+        <v>-178.84100000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>10345.603136</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.873779</v>
+        <v>2.8737789999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.146000</v>
+        <v>-209.14599999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>10356.267650</v>
+        <v>10356.26765</v>
       </c>
       <c r="AP8" s="1">
         <v>2.876741</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1401.930000</v>
+        <v>1401.93</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.451000</v>
+        <v>-253.45099999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>10367.608643</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.879891</v>
+        <v>2.8798910000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.370000</v>
+        <v>1426.37</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.988000</v>
+        <v>-313.988</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>10378.773129</v>
+        <v>10378.773128999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.882993</v>
+        <v>2.8829929999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.549000</v>
+        <v>-366.54899999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>10389.710373</v>
@@ -2188,43 +2604,43 @@
         <v>2.886031</v>
       </c>
       <c r="BF8" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG8" s="1">
-        <v>-617.394000</v>
+        <v>-617.39400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>10400.460663</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.889017</v>
+        <v>2.8890169999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.650000</v>
+        <v>1683.65</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1068.330000</v>
+        <v>-1068.33</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>10411.396984</v>
+        <v>10411.396984000001</v>
       </c>
       <c r="BO8" s="1">
         <v>2.892055</v>
       </c>
       <c r="BP8" s="1">
-        <v>1977.520000</v>
+        <v>1977.52</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1851.760000</v>
+        <v>-1851.76</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>10422.159683</v>
@@ -2233,46 +2649,46 @@
         <v>2.895044</v>
       </c>
       <c r="BU8" s="1">
-        <v>2364.290000</v>
+        <v>2364.29</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2760.230000</v>
+        <v>-2760.23</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>10433.645507</v>
+        <v>10433.645506999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.898235</v>
+        <v>2.8982350000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2852.660000</v>
+        <v>2852.66</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3749.990000</v>
+        <v>-3749.99</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>10445.241009</v>
+        <v>10445.241008999999</v>
       </c>
       <c r="CD8" s="1">
         <v>2.901456</v>
       </c>
       <c r="CE8" s="1">
-        <v>4303.730000</v>
+        <v>4303.7299999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6147.340000</v>
+        <v>-6147.34</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>10274.066175</v>
       </c>
@@ -2280,58 +2696,58 @@
         <v>2.853907</v>
       </c>
       <c r="C9" s="1">
-        <v>1244.240000</v>
+        <v>1244.24</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.718000</v>
+        <v>-306.71800000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>10284.476214</v>
       </c>
       <c r="G9" s="1">
-        <v>2.856799</v>
+        <v>2.8567990000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.050000</v>
+        <v>1269.05</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.483000</v>
+        <v>-264.483</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>10294.976483</v>
       </c>
       <c r="L9" s="1">
-        <v>2.859716</v>
+        <v>2.8597160000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.330000</v>
+        <v>1305.33</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.355000</v>
+        <v>-202.35499999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>10305.552710</v>
+        <v>10305.55271</v>
       </c>
       <c r="Q9" s="1">
         <v>2.862654</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.950000</v>
+        <v>1316.95</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.341000</v>
+        <v>-184.34100000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>10315.768775</v>
@@ -2340,58 +2756,58 @@
         <v>2.865491</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.810000</v>
+        <v>1329.81</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.952000</v>
+        <v>-170.952</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>10325.615887</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.868227</v>
+        <v>2.8682270000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.910000</v>
+        <v>1346.91</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.947000</v>
+        <v>-168.947</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>10335.817565</v>
+        <v>10335.817564999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>2.871060</v>
+        <v>2.8710599999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1359.860000</v>
+        <v>1359.86</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.853000</v>
+        <v>-178.85300000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>10346.256404</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.873960</v>
+        <v>2.8739599999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.400000</v>
+        <v>1380.4</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.176000</v>
+        <v>-209.17599999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>10356.930273</v>
@@ -2400,28 +2816,28 @@
         <v>2.876925</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1401.860000</v>
+        <v>1401.86</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.401000</v>
+        <v>-253.40100000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>10368.022802</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.880006</v>
+        <v>2.8800059999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.360000</v>
+        <v>1426.36</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.934000</v>
+        <v>-313.93400000000003</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>10379.130707</v>
@@ -2430,13 +2846,13 @@
         <v>2.883092</v>
       </c>
       <c r="BA9" s="1">
-        <v>1445.620000</v>
+        <v>1445.62</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.542000</v>
+        <v>-366.54199999999997</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>10390.099268</v>
@@ -2445,348 +2861,348 @@
         <v>2.886139</v>
       </c>
       <c r="BF9" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG9" s="1">
-        <v>-617.352000</v>
+        <v>-617.35199999999998</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>10400.837128</v>
+        <v>10400.837127999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.889121</v>
+        <v>2.8891209999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.670000</v>
+        <v>1683.67</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1068.320000</v>
+        <v>-1068.32</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>10411.811612</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.892170</v>
+        <v>2.8921700000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1977.370000</v>
+        <v>1977.37</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1851.800000</v>
+        <v>-1851.8</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>10422.569338</v>
+        <v>10422.569337999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.895158</v>
+        <v>2.8951579999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2363.800000</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2760.270000</v>
+        <v>-2760.27</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>10434.061180</v>
+        <v>10434.061180000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.898350</v>
+        <v>2.8983500000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2853.650000</v>
+        <v>2853.65</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3749.710000</v>
+        <v>-3749.71</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>10445.769709</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.901603</v>
+        <v>2.9016030000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>4292.570000</v>
+        <v>4292.57</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6132.830000</v>
+        <v>-6132.83</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>10274.751614</v>
+        <v>10274.751614000001</v>
       </c>
       <c r="B10" s="1">
         <v>2.854098</v>
       </c>
       <c r="C10" s="1">
-        <v>1244.090000</v>
+        <v>1244.0899999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-306.230000</v>
+        <v>-306.23</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>10285.168224</v>
+        <v>10285.168223999999</v>
       </c>
       <c r="G10" s="1">
-        <v>2.856991</v>
+        <v>2.8569909999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.180000</v>
+        <v>1269.18</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.247000</v>
+        <v>-264.24700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>10295.320737</v>
       </c>
       <c r="L10" s="1">
-        <v>2.859811</v>
+        <v>2.8598110000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.300000</v>
+        <v>1305.3</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.438000</v>
+        <v>-202.43799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>10305.899708</v>
+        <v>10305.899708000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.862750</v>
+        <v>2.8627500000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.950000</v>
+        <v>1316.95</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.261000</v>
+        <v>-184.261</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>10316.116470</v>
+        <v>10316.116470000001</v>
       </c>
       <c r="V10" s="1">
-        <v>2.865588</v>
+        <v>2.8655879999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.710000</v>
+        <v>1329.71</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.004000</v>
+        <v>-171.00399999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>10326.262633</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.868406</v>
+        <v>2.8684059999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.060000</v>
+        <v>1347.06</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.992000</v>
+        <v>-168.99199999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>10336.439052</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.871233</v>
+        <v>2.8712330000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.840000</v>
+        <v>1359.84</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.876000</v>
+        <v>-178.876</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>10346.648736</v>
+        <v>10346.648735999999</v>
       </c>
       <c r="AK10" s="1">
         <v>2.874069</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.120000</v>
+        <v>-209.12</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>10357.374194</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.877048</v>
+        <v>2.8770479999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1401.950000</v>
+        <v>1401.95</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.407000</v>
+        <v>-253.40700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>10368.378931</v>
+        <v>10368.378930999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.880105</v>
+        <v>2.8801049999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.360000</v>
+        <v>1426.36</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.970000</v>
+        <v>-313.97000000000003</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>10379.492291</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.883192</v>
+        <v>2.8831920000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.492000</v>
+        <v>-366.49200000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>10390.458847</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.886239</v>
+        <v>2.8862390000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1530.280000</v>
+        <v>1530.28</v>
       </c>
       <c r="BG10" s="1">
-        <v>-617.363000</v>
+        <v>-617.36300000000006</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>10401.258726</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.889239</v>
+        <v>2.8892389999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.670000</v>
+        <v>1683.67</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1068.270000</v>
+        <v>-1068.27</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>10412.220841</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.892284</v>
+        <v>2.8922840000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1977.430000</v>
+        <v>1977.43</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1851.800000</v>
+        <v>-1851.8</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>10422.989945</v>
+        <v>10422.989944999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.895275</v>
+        <v>2.8952749999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>2363.570000</v>
+        <v>2363.5700000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2759.650000</v>
+        <v>-2759.65</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>10434.517466</v>
+        <v>10434.517465999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.898477</v>
+        <v>2.8984770000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2852.490000</v>
+        <v>2852.49</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3749.820000</v>
+        <v>-3749.82</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>10446.288028</v>
+        <v>10446.288028000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.901747</v>
+        <v>2.9017469999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4286.050000</v>
+        <v>4286.05</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6151.130000</v>
+        <v>-6151.13</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>10275.093885</v>
       </c>
@@ -2794,88 +3210,88 @@
         <v>2.854193</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.220000</v>
+        <v>1244.22</v>
       </c>
       <c r="D11" s="1">
-        <v>-306.642000</v>
+        <v>-306.642</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>10285.508351</v>
       </c>
       <c r="G11" s="1">
-        <v>2.857086</v>
+        <v>2.8570859999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.470000</v>
+        <v>1269.47</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.342000</v>
+        <v>-264.34199999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>10295.669889</v>
+        <v>10295.669889000001</v>
       </c>
       <c r="L11" s="1">
-        <v>2.859908</v>
+        <v>2.8599079999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.910000</v>
+        <v>1304.9100000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.390000</v>
+        <v>-202.39</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>10306.550627</v>
+        <v>10306.550627000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.862931</v>
+        <v>2.8629310000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.010000</v>
+        <v>1317.01</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.305000</v>
+        <v>-184.30500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>10316.762263</v>
+        <v>10316.762263000001</v>
       </c>
       <c r="V11" s="1">
         <v>2.865767</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.940000</v>
+        <v>1329.94</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.918000</v>
+        <v>-170.91800000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>10326.663401</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.868518</v>
+        <v>2.8685179999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.890000</v>
+        <v>1346.89</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.901000</v>
+        <v>-168.90100000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>10336.846851</v>
@@ -2884,28 +3300,28 @@
         <v>2.871346</v>
       </c>
       <c r="AG11" s="1">
-        <v>1359.850000</v>
+        <v>1359.85</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.884000</v>
+        <v>-178.88399999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>10346.997422</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.874166</v>
+        <v>2.8741660000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.350000</v>
+        <v>1380.35</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.149000</v>
+        <v>-209.149</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>10357.734315</v>
@@ -2914,165 +3330,165 @@
         <v>2.877148</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1401.890000</v>
+        <v>1401.89</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.411000</v>
+        <v>-253.411</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>10368.753442</v>
+        <v>10368.753441999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.880209</v>
+        <v>2.8802089999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.330000</v>
+        <v>1426.33</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.951000</v>
+        <v>-313.95100000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>10379.922322</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.883312</v>
+        <v>2.8833120000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.486000</v>
+        <v>-366.48599999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>10390.893828</v>
       </c>
       <c r="BE11" s="1">
-        <v>2.886359</v>
+        <v>2.8863590000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1530.280000</v>
+        <v>1530.28</v>
       </c>
       <c r="BG11" s="1">
-        <v>-617.371000</v>
+        <v>-617.37099999999998</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>10401.585622</v>
+        <v>10401.585622000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>2.889329</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.650000</v>
+        <v>1683.65</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1068.250000</v>
+        <v>-1068.25</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>10412.615623</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.892393</v>
+        <v>2.8923930000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1977.410000</v>
+        <v>1977.41</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1851.840000</v>
+        <v>-1851.84</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>10423.404601</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.895390</v>
+        <v>2.8953899999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2363.260000</v>
+        <v>2363.2600000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2759.500000</v>
+        <v>-2759.5</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>10434.961386</v>
+        <v>10434.961386000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.898600</v>
+        <v>2.8986000000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2852.450000</v>
+        <v>2852.45</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3750.280000</v>
+        <v>-3750.28</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>10446.905546</v>
       </c>
       <c r="CD11" s="1">
-        <v>2.901918</v>
+        <v>2.9019180000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>4291.670000</v>
+        <v>4291.67</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6135.430000</v>
+        <v>-6135.43</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>10275.435748</v>
       </c>
       <c r="B12" s="1">
-        <v>2.854288</v>
+        <v>2.8542879999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1244.130000</v>
+        <v>1244.1300000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-306.329000</v>
+        <v>-306.32900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>10286.147230</v>
+        <v>10286.14723</v>
       </c>
       <c r="G12" s="1">
-        <v>2.857263</v>
+        <v>2.8572630000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.110000</v>
+        <v>1270.1099999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.344000</v>
+        <v>-265.34399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>10296.312247</v>
@@ -3081,58 +3497,58 @@
         <v>2.860087</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.090000</v>
+        <v>1305.0899999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.609000</v>
+        <v>-202.60900000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>10306.946468</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.863041</v>
+        <v>2.8630409999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.020000</v>
+        <v>1317.02</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.313000</v>
+        <v>-184.31299999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>10317.148150</v>
+        <v>10317.148150000001</v>
       </c>
       <c r="V12" s="1">
-        <v>2.865874</v>
+        <v>2.8658739999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.860000</v>
+        <v>1329.86</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.767000</v>
+        <v>-170.767</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>10327.013577</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.868615</v>
+        <v>2.8686150000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.780000</v>
+        <v>1346.78</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.958000</v>
+        <v>-168.958</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>10337.191026</v>
@@ -3141,13 +3557,13 @@
         <v>2.871442</v>
       </c>
       <c r="AG12" s="1">
-        <v>1359.900000</v>
+        <v>1359.9</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.915000</v>
+        <v>-178.91499999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>10347.347071</v>
@@ -3156,13 +3572,13 @@
         <v>2.874263</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.370000</v>
+        <v>1380.37</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.121000</v>
+        <v>-209.12100000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>10358.143984</v>
@@ -3171,103 +3587,103 @@
         <v>2.877262</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1401.900000</v>
+        <v>1401.9</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.412000</v>
+        <v>-253.41200000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>10369.174514</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.880326</v>
+        <v>2.8803260000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.971000</v>
+        <v>-313.971</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>10380.209648</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.883392</v>
+        <v>2.8833920000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1445.600000</v>
+        <v>1445.6</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.546000</v>
+        <v>-366.54599999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>10391.180516</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.886439</v>
+        <v>2.8864390000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1530.260000</v>
+        <v>1530.26</v>
       </c>
       <c r="BG12" s="1">
-        <v>-617.340000</v>
+        <v>-617.34</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>10401.985365</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.889440</v>
+        <v>2.88944</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.640000</v>
+        <v>1683.64</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1068.280000</v>
+        <v>-1068.28</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>10413.038247</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.892511</v>
+        <v>2.8925109999999998</v>
       </c>
       <c r="BP12" s="1">
-        <v>1977.390000</v>
+        <v>1977.39</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1851.720000</v>
+        <v>-1851.72</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>10423.817274</v>
+        <v>10423.817274000001</v>
       </c>
       <c r="BT12" s="1">
         <v>2.895505</v>
       </c>
       <c r="BU12" s="1">
-        <v>2363.510000</v>
+        <v>2363.5100000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2758.610000</v>
+        <v>-2758.61</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>10435.382985</v>
@@ -3276,135 +3692,135 @@
         <v>2.898717</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2852.630000</v>
+        <v>2852.63</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3750.050000</v>
+        <v>-3750.05</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>10447.368346</v>
+        <v>10447.368345999999</v>
       </c>
       <c r="CD12" s="1">
         <v>2.902047</v>
       </c>
       <c r="CE12" s="1">
-        <v>4290.220000</v>
+        <v>4290.22</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6134.420000</v>
+        <v>-6134.42</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>10276.077451</v>
+        <v>10276.077450999999</v>
       </c>
       <c r="B13" s="1">
-        <v>2.854466</v>
+        <v>2.8544659999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1244.320000</v>
+        <v>1244.32</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.064000</v>
+        <v>-306.06400000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>10286.543503</v>
+        <v>10286.543503000001</v>
       </c>
       <c r="G13" s="1">
-        <v>2.857373</v>
+        <v>2.8573729999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.010000</v>
+        <v>1270.01</v>
       </c>
       <c r="I13" s="1">
-        <v>-263.945000</v>
+        <v>-263.94499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>10296.706034</v>
+        <v>10296.706034000001</v>
       </c>
       <c r="L13" s="1">
-        <v>2.860196</v>
+        <v>2.8601960000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.250000</v>
+        <v>1305.25</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.629000</v>
+        <v>-202.62899999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>10307.296114</v>
+        <v>10307.296114000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.863138</v>
+        <v>2.8631380000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.980000</v>
+        <v>1316.98</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.372000</v>
+        <v>-184.37200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>10317.490885</v>
+        <v>10317.490884999999</v>
       </c>
       <c r="V13" s="1">
-        <v>2.865970</v>
+        <v>2.8659699999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1329.850000</v>
+        <v>1329.85</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.909000</v>
+        <v>-170.90899999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>10327.359785</v>
+        <v>10327.359785000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.868711</v>
+        <v>2.8687109999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.060000</v>
+        <v>1347.06</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.962000</v>
+        <v>-168.96199999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>10337.535706</v>
+        <v>10337.535706000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.871538</v>
+        <v>2.8715380000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1359.870000</v>
+        <v>1359.87</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.899000</v>
+        <v>-178.899</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>10347.756797</v>
@@ -3413,345 +3829,345 @@
         <v>2.874377</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.370000</v>
+        <v>1380.37</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.142000</v>
+        <v>-209.142</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>10358.456959</v>
+        <v>10358.456958999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.877349</v>
+        <v>2.8773490000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1401.880000</v>
+        <v>1401.88</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.431000</v>
+        <v>-253.43100000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>10369.482528</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.880412</v>
+        <v>2.8804120000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.360000</v>
+        <v>1426.36</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.937000</v>
+        <v>-313.93700000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>10380.567122</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.883491</v>
+        <v>2.8834909999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.515000</v>
+        <v>-366.51499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>10391.544611</v>
+        <v>10391.544610999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.886540</v>
+        <v>2.8865400000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1530.250000</v>
+        <v>1530.25</v>
       </c>
       <c r="BG13" s="1">
-        <v>-617.353000</v>
+        <v>-617.35299999999995</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>10402.362821</v>
+        <v>10402.362821000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>2.889545</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.640000</v>
+        <v>1683.64</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1068.220000</v>
+        <v>-1068.22</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>10413.455846</v>
+        <v>10413.455846000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.892627</v>
+        <v>2.8926270000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1977.220000</v>
+        <v>1977.22</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1851.720000</v>
+        <v>-1851.72</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>10424.233416</v>
+        <v>10424.233415999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.895620</v>
+        <v>2.8956200000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2363.350000</v>
+        <v>2363.35</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2758.240000</v>
+        <v>-2758.24</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>10435.804089</v>
+        <v>10435.804088999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.898834</v>
+        <v>2.8988339999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2853.010000</v>
+        <v>2853.01</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3749.850000</v>
+        <v>-3749.85</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>10447.887128</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.902191</v>
+        <v>2.9021910000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>4282.260000</v>
+        <v>4282.26</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6149.270000</v>
+        <v>-6149.27</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>10276.460331</v>
       </c>
       <c r="B14" s="1">
-        <v>2.854572</v>
+        <v>2.8545720000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1243.850000</v>
+        <v>1243.8499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.370000</v>
+        <v>-306.37</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>10286.892685</v>
+        <v>10286.892685000001</v>
       </c>
       <c r="G14" s="1">
-        <v>2.857470</v>
+        <v>2.8574700000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1270.380000</v>
+        <v>1270.3800000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.354000</v>
+        <v>-264.35399999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>10297.049295</v>
+        <v>10297.049295000001</v>
       </c>
       <c r="L14" s="1">
-        <v>2.860291</v>
+        <v>2.8602910000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.210000</v>
+        <v>1305.21</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.519000</v>
+        <v>-202.51900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>10307.643314</v>
+        <v>10307.643314000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.863234</v>
+        <v>2.8632339999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.970000</v>
+        <v>1316.97</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.320000</v>
+        <v>-184.32</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>10317.833124</v>
+        <v>10317.833124000001</v>
       </c>
       <c r="V14" s="1">
-        <v>2.866065</v>
+        <v>2.8660649999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.860000</v>
+        <v>1329.86</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.860000</v>
+        <v>-170.86</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>10327.770505</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.868825</v>
+        <v>2.8688250000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.040000</v>
+        <v>1347.04</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.974000</v>
+        <v>-168.97399999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>10337.954330</v>
+        <v>10337.95433</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.871654</v>
+        <v>2.8716539999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1359.920000</v>
+        <v>1359.92</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.832000</v>
+        <v>-178.83199999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>10348.048908</v>
+        <v>10348.048908000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.874458</v>
+        <v>2.8744580000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.360000</v>
+        <v>1380.36</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.137000</v>
+        <v>-209.137</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>10358.815603</v>
+        <v>10358.815602999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.877449</v>
+        <v>2.8774489999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1401.940000</v>
+        <v>1401.94</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.398000</v>
+        <v>-253.398</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>10369.845601</v>
+        <v>10369.845601000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.880513</v>
+        <v>2.8805130000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.957000</v>
+        <v>-313.95699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>10380.929202</v>
+        <v>10380.929201999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>2.883591</v>
       </c>
       <c r="BA14" s="1">
-        <v>1445.620000</v>
+        <v>1445.62</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.491000</v>
+        <v>-366.49099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>10391.905209</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.886640</v>
+        <v>2.8866399999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1530.300000</v>
+        <v>1530.3</v>
       </c>
       <c r="BG14" s="1">
-        <v>-617.350000</v>
+        <v>-617.35</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>10403.112803</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.889754</v>
+        <v>2.8897539999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.640000</v>
+        <v>1683.64</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1068.220000</v>
+        <v>-1068.22</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>10413.856118</v>
@@ -3760,270 +4176,270 @@
         <v>2.892738</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.280000</v>
+        <v>1977.28</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1851.640000</v>
+        <v>-1851.64</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>10424.669399</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.895741</v>
+        <v>2.8957410000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2363.060000</v>
+        <v>2363.06</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2757.940000</v>
+        <v>-2757.94</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>10436.233128</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.898954</v>
+        <v>2.8989539999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2852.790000</v>
+        <v>2852.79</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3748.620000</v>
+        <v>-3748.62</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>10448.710519</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.902420</v>
+        <v>2.9024200000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>4299.780000</v>
+        <v>4299.78</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6153.730000</v>
+        <v>-6153.73</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>10276.804059</v>
       </c>
       <c r="B15" s="1">
-        <v>2.854668</v>
+        <v>2.8546680000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1243.960000</v>
+        <v>1243.96</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.454000</v>
+        <v>-306.45400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>10287.234926</v>
+        <v>10287.234925999999</v>
       </c>
       <c r="G15" s="1">
-        <v>2.857565</v>
+        <v>2.8575650000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="I15" s="1">
-        <v>-265.038000</v>
+        <v>-265.03800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>10297.397984</v>
+        <v>10297.397983999999</v>
       </c>
       <c r="L15" s="1">
-        <v>2.860388</v>
+        <v>2.8603879999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.260000</v>
+        <v>1305.26</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.417000</v>
+        <v>-202.417</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>10308.049397</v>
+        <v>10308.049397000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.863347</v>
+        <v>2.8633470000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.930000</v>
+        <v>1316.93</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.296000</v>
+        <v>-184.29599999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>10318.252244</v>
+        <v>10318.252243999999</v>
       </c>
       <c r="V15" s="1">
-        <v>2.866181</v>
+        <v>2.8661810000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1329.840000</v>
+        <v>1329.84</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.853000</v>
+        <v>-170.85300000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>10328.069593</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.868908</v>
+        <v>2.8689079999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.070000</v>
+        <v>1347.07</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.952000</v>
+        <v>-168.952</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>10338.225641</v>
+        <v>10338.225641000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.871729</v>
+        <v>2.8717290000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1359.870000</v>
+        <v>1359.87</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.916000</v>
+        <v>-178.916</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>10348.399612</v>
+        <v>10348.399611999999</v>
       </c>
       <c r="AK15" s="1">
         <v>2.874555</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.360000</v>
+        <v>1380.36</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.154000</v>
+        <v>-209.154</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>10359.173710</v>
+        <v>10359.173709999999</v>
       </c>
       <c r="AP15" s="1">
         <v>2.877548</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1401.900000</v>
+        <v>1401.9</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.394000</v>
+        <v>-253.39400000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>10370.211154</v>
+        <v>10370.211154000001</v>
       </c>
       <c r="AU15" s="1">
         <v>2.880614</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.370000</v>
+        <v>1426.37</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.961000</v>
+        <v>-313.96100000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>10381.645424</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.883790</v>
+        <v>2.8837899999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1445.570000</v>
+        <v>1445.57</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.501000</v>
+        <v>-366.50099999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>10392.682930</v>
+        <v>10392.682930000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.886856</v>
+        <v>2.8868559999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1530.220000</v>
+        <v>1530.22</v>
       </c>
       <c r="BG15" s="1">
-        <v>-617.336000</v>
+        <v>-617.33600000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>10403.487780</v>
+        <v>10403.487779999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.889858</v>
+        <v>2.8898579999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.590000</v>
+        <v>1683.59</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1068.230000</v>
+        <v>-1068.23</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>10414.252421</v>
+        <v>10414.252420999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.892848</v>
+        <v>2.8928479999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1977.400000</v>
+        <v>1977.4</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1851.700000</v>
+        <v>-1851.7</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>10425.098936</v>
@@ -4032,46 +4448,46 @@
         <v>2.895861</v>
       </c>
       <c r="BU15" s="1">
-        <v>2363.300000</v>
+        <v>2363.3000000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2757.520000</v>
+        <v>-2757.52</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>10436.949383</v>
+        <v>10436.949382999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.899153</v>
+        <v>2.8991530000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.600000</v>
+        <v>2852.6</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3749.930000</v>
+        <v>-3749.93</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>10448.923306</v>
+        <v>10448.923306000001</v>
       </c>
       <c r="CD15" s="1">
         <v>2.902479</v>
       </c>
       <c r="CE15" s="1">
-        <v>4301.670000</v>
+        <v>4301.67</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6135.340000</v>
+        <v>-6135.34</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>10277.144843</v>
       </c>
@@ -4079,88 +4495,88 @@
         <v>2.854762</v>
       </c>
       <c r="C16" s="1">
-        <v>1244.120000</v>
+        <v>1244.1199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.329000</v>
+        <v>-306.32900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>10287.649084</v>
+        <v>10287.649084000001</v>
       </c>
       <c r="G16" s="1">
-        <v>2.857680</v>
+        <v>2.8576800000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.500000</v>
+        <v>1269.5</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.204000</v>
+        <v>-264.20400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>10297.815087</v>
+        <v>10297.815087000001</v>
       </c>
       <c r="L16" s="1">
-        <v>2.860504</v>
+        <v>2.8605040000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.430000</v>
+        <v>1305.43</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.205000</v>
+        <v>-202.20500000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>10308.341185</v>
+        <v>10308.341184999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.863428</v>
+        <v>2.8634279999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.960000</v>
+        <v>1316.96</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.274000</v>
+        <v>-184.274</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>10318.531987</v>
       </c>
       <c r="V16" s="1">
-        <v>2.866259</v>
+        <v>2.8662589999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.860000</v>
+        <v>1329.86</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.919000</v>
+        <v>-170.91900000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>10328.419270</v>
+        <v>10328.41927</v>
       </c>
       <c r="AA16" s="1">
         <v>2.869005</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.060000</v>
+        <v>1347.06</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.984000</v>
+        <v>-168.98400000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>10338.710265</v>
@@ -4169,148 +4585,148 @@
         <v>2.871864</v>
       </c>
       <c r="AG16" s="1">
-        <v>1359.840000</v>
+        <v>1359.84</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.959000</v>
+        <v>-178.959</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>10348.749757</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.874653</v>
+        <v>2.8746529999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.390000</v>
+        <v>1380.39</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.158000</v>
+        <v>-209.15799999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>10359.900317</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.877750</v>
+        <v>2.8777499999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1401.910000</v>
+        <v>1401.91</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.403000</v>
+        <v>-253.40299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>10370.945726</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.880818</v>
+        <v>2.8808180000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.320000</v>
+        <v>1426.32</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.917000</v>
+        <v>-313.91699999999997</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>10382.004032</v>
+        <v>10382.004032000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.883890</v>
+        <v>2.8838900000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1445.570000</v>
+        <v>1445.57</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.504000</v>
+        <v>-366.50400000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>10392.986946</v>
+        <v>10392.986946000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.886941</v>
+        <v>2.8869410000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1530.240000</v>
+        <v>1530.24</v>
       </c>
       <c r="BG16" s="1">
-        <v>-617.358000</v>
+        <v>-617.35799999999995</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>10403.863715</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.889962</v>
+        <v>2.8899620000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.590000</v>
+        <v>1683.59</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1068.200000</v>
+        <v>-1068.2</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>10414.977108</v>
+        <v>10414.977107999999</v>
       </c>
       <c r="BO16" s="1">
         <v>2.893049</v>
       </c>
       <c r="BP16" s="1">
-        <v>1977.200000</v>
+        <v>1977.2</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1851.640000</v>
+        <v>-1851.64</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>10425.817669</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.896060</v>
+        <v>2.8960599999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2363.410000</v>
+        <v>2363.41</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2756.940000</v>
+        <v>-2756.94</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>10437.095702</v>
+        <v>10437.095702000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.899193</v>
+        <v>2.8991929999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2853.210000</v>
+        <v>2853.21</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3749.690000</v>
+        <v>-3749.69</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>10449.439606</v>
@@ -4319,30 +4735,30 @@
         <v>2.902622</v>
       </c>
       <c r="CE16" s="1">
-        <v>4303.830000</v>
+        <v>4303.83</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6143.970000</v>
+        <v>-6143.97</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>10277.564426</v>
+        <v>10277.564426000001</v>
       </c>
       <c r="B17" s="1">
-        <v>2.854879</v>
+        <v>2.8548789999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1244.460000</v>
+        <v>1244.46</v>
       </c>
       <c r="D17" s="1">
-        <v>-306.401000</v>
+        <v>-306.40100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>10287.938251</v>
@@ -4351,43 +4767,43 @@
         <v>2.857761</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.740000</v>
+        <v>1269.74</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.476000</v>
+        <v>-264.476</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>10298.111230</v>
+        <v>10298.11123</v>
       </c>
       <c r="L17" s="1">
-        <v>2.860586</v>
+        <v>2.8605860000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.300000</v>
+        <v>1305.3</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.644000</v>
+        <v>-202.64400000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>10308.690865</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.863525</v>
+        <v>2.8635250000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.010000</v>
+        <v>1317.01</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.289000</v>
+        <v>-184.28899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>10318.865796</v>
@@ -4396,163 +4812,163 @@
         <v>2.866352</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.880000</v>
+        <v>1329.88</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.869000</v>
+        <v>-170.869</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>10328.767926</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.869102</v>
+        <v>2.8691019999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.900000</v>
+        <v>1346.9</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.077000</v>
+        <v>-169.077</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>10339.233053</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.872009</v>
+        <v>2.8720089999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.820000</v>
+        <v>1359.82</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.846000</v>
+        <v>-178.846</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>10349.445913</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.874846</v>
+        <v>2.8748459999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.340000</v>
+        <v>1380.34</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.142000</v>
+        <v>-209.142</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>10360.285213</v>
+        <v>10360.285212999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.877857</v>
+        <v>2.8778570000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1401.930000</v>
+        <v>1401.93</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.394000</v>
+        <v>-253.39400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>10371.327342</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.880924</v>
+        <v>2.8809239999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.350000</v>
+        <v>1426.35</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.951000</v>
+        <v>-313.95100000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>10382.363631</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.883990</v>
+        <v>2.8839899999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1445.580000</v>
+        <v>1445.58</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.523000</v>
+        <v>-366.52300000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>10393.654064</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.887126</v>
+        <v>2.8871259999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1530.250000</v>
+        <v>1530.25</v>
       </c>
       <c r="BG17" s="1">
-        <v>-617.323000</v>
+        <v>-617.32299999999998</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>10404.548195</v>
+        <v>10404.548194999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.890152</v>
+        <v>2.8901520000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.540000</v>
+        <v>1683.54</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1068.250000</v>
+        <v>-1068.25</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>10415.096147</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.893082</v>
+        <v>2.8930820000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1977.260000</v>
+        <v>1977.26</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1851.550000</v>
+        <v>-1851.55</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>10425.941638</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.896095</v>
+        <v>2.8960949999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2363.940000</v>
+        <v>2363.94</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2756.500000</v>
+        <v>-2756.5</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>10437.520246</v>
@@ -4561,302 +4977,302 @@
         <v>2.899311</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2853.280000</v>
+        <v>2853.28</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3749.600000</v>
+        <v>-3749.6</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>10449.992646</v>
+        <v>10449.992646000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.902776</v>
+        <v>2.9027759999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>4296.310000</v>
+        <v>4296.3100000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6155.150000</v>
+        <v>-6155.15</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>10277.846154</v>
+        <v>10277.846154000001</v>
       </c>
       <c r="B18" s="1">
-        <v>2.854957</v>
+        <v>2.8549570000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1243.800000</v>
+        <v>1243.8</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.325000</v>
+        <v>-306.32499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>10288.282971</v>
+        <v>10288.282971000001</v>
       </c>
       <c r="G18" s="1">
         <v>2.857856</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.060000</v>
+        <v>1269.06</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.951000</v>
+        <v>-264.95100000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>10298.456415</v>
+        <v>10298.456415000001</v>
       </c>
       <c r="L18" s="1">
-        <v>2.860682</v>
+        <v>2.8606820000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.257000</v>
+        <v>-202.25700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>10309.038560</v>
+        <v>10309.038560000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.863622</v>
+        <v>2.8636219999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.900000</v>
+        <v>1316.9</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.363000</v>
+        <v>-184.363</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>10319.222419</v>
       </c>
       <c r="V18" s="1">
-        <v>2.866451</v>
+        <v>2.8664510000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.930000</v>
+        <v>1329.93</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.895000</v>
+        <v>-170.89500000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>10329.462327</v>
+        <v>10329.462326999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.869295</v>
+        <v>2.8692950000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.110000</v>
+        <v>1347.11</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.110000</v>
+        <v>-169.11</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>10339.597609</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.872110</v>
+        <v>2.8721100000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>1359.790000</v>
+        <v>1359.79</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.931000</v>
+        <v>-178.93100000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>10349.795660</v>
+        <v>10349.79566</v>
       </c>
       <c r="AK18" s="1">
         <v>2.874943</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.350000</v>
+        <v>1380.35</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.137000</v>
+        <v>-209.137</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>10360.646796</v>
+        <v>10360.646796000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.877957</v>
+        <v>2.8779569999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1401.880000</v>
+        <v>1401.88</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.409000</v>
+        <v>-253.40899999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>10371.692703</v>
+        <v>10371.692703000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.881026</v>
+        <v>2.8810259999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.330000</v>
+        <v>1426.33</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.928000</v>
+        <v>-313.928</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>10383.024798</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.884174</v>
+        <v>2.8841739999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1445.580000</v>
+        <v>1445.58</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.453000</v>
+        <v>-366.45299999999997</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>10394.095504</v>
+        <v>10394.095504000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.887249</v>
+        <v>2.8872490000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG18" s="1">
-        <v>-617.324000</v>
+        <v>-617.32399999999996</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>10404.656819</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.890182</v>
+        <v>2.8901819999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.540000</v>
+        <v>1683.54</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1068.270000</v>
+        <v>-1068.27</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>10415.490965</v>
+        <v>10415.490965000001</v>
       </c>
       <c r="BO18" s="1">
         <v>2.893192</v>
       </c>
       <c r="BP18" s="1">
-        <v>1977.290000</v>
+        <v>1977.29</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1851.650000</v>
+        <v>-1851.65</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>10426.379109</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.896216</v>
+        <v>2.8962159999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2363.960000</v>
+        <v>2363.96</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2755.970000</v>
+        <v>-2755.97</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>10437.944822</v>
+        <v>10437.944821999999</v>
       </c>
       <c r="BY18" s="1">
         <v>2.899429</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2852.850000</v>
+        <v>2852.85</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3749.150000</v>
+        <v>-3749.15</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>10450.523861</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.902923</v>
+        <v>2.9029229999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4303.240000</v>
+        <v>4303.24</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6137.780000</v>
+        <v>-6137.78</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>10278.189384</v>
+        <v>10278.189383999999</v>
       </c>
       <c r="B19" s="1">
-        <v>2.855053</v>
+        <v>2.8550529999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.110000</v>
+        <v>1244.1099999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-306.495000</v>
+        <v>-306.495</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>10288.626699</v>
@@ -4865,330 +5281,330 @@
         <v>2.857952</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.990000</v>
+        <v>1269.99</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.506000</v>
+        <v>-264.50599999999997</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>10298.804142</v>
+        <v>10298.804142000001</v>
       </c>
       <c r="L19" s="1">
         <v>2.860779</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.484000</v>
+        <v>-202.48400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>10309.738911</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.863816</v>
+        <v>2.8638159999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.860000</v>
+        <v>1316.86</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.336000</v>
+        <v>-184.33600000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>10319.912883</v>
+        <v>10319.912883000001</v>
       </c>
       <c r="V19" s="1">
-        <v>2.866642</v>
+        <v>2.8666420000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1329.940000</v>
+        <v>1329.94</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.820000</v>
+        <v>-170.82</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>10329.813990</v>
+        <v>10329.813990000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.869393</v>
+        <v>2.8693930000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.900000</v>
+        <v>1346.9</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.931000</v>
+        <v>-168.93100000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>10339.943783</v>
+        <v>10339.943783000001</v>
       </c>
       <c r="AF19" s="1">
         <v>2.872207</v>
       </c>
       <c r="AG19" s="1">
-        <v>1359.760000</v>
+        <v>1359.76</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.862000</v>
+        <v>-178.86199999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>10350.145610</v>
+        <v>10350.14561</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.875040</v>
+        <v>2.8750399999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.134000</v>
+        <v>-209.13399999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>10361.316891</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.878144</v>
+        <v>2.8781439999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1401.890000</v>
+        <v>1401.89</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.432000</v>
+        <v>-253.43199999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>10372.356385</v>
+        <v>10372.356384999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.881210</v>
+        <v>2.8812099999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.889000</v>
+        <v>-313.88900000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>10383.472189</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.884298</v>
+        <v>2.8842979999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1445.550000</v>
+        <v>1445.55</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.507000</v>
+        <v>-366.50700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>10394.454640</v>
+        <v>10394.45464</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.887349</v>
+        <v>2.8873489999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1530.220000</v>
+        <v>1530.22</v>
       </c>
       <c r="BG19" s="1">
-        <v>-617.333000</v>
+        <v>-617.33299999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>10405.022865</v>
+        <v>10405.022865000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.890284</v>
+        <v>2.8902839999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.640000</v>
+        <v>1683.64</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1068.110000</v>
+        <v>-1068.1099999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>10415.914515</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.893310</v>
+        <v>2.89331</v>
       </c>
       <c r="BP19" s="1">
-        <v>1977.300000</v>
+        <v>1977.3</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1851.660000</v>
+        <v>-1851.66</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>10426.807157</v>
+        <v>10426.807156999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.896335</v>
+        <v>2.8963350000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2364.650000</v>
+        <v>2364.65</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2755.970000</v>
+        <v>-2755.97</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>10438.390263</v>
+        <v>10438.390262999999</v>
       </c>
       <c r="BY19" s="1">
         <v>2.899553</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2852.660000</v>
+        <v>2852.66</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3749.250000</v>
+        <v>-3749.25</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>10451.040692</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.903067</v>
+        <v>2.9030670000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4286.560000</v>
+        <v>4286.5600000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6132.150000</v>
+        <v>-6132.15</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>10278.529640</v>
+        <v>10278.529640000001</v>
       </c>
       <c r="B20" s="1">
-        <v>2.855147</v>
+        <v>2.8551470000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.150000</v>
+        <v>1244.1500000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-305.922000</v>
+        <v>-305.92200000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>10289.315643</v>
       </c>
       <c r="G20" s="1">
-        <v>2.858143</v>
+        <v>2.8581430000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.470000</v>
+        <v>1269.47</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.220000</v>
+        <v>-264.22000000000003</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>10299.499997</v>
+        <v>10299.499997000001</v>
       </c>
       <c r="L20" s="1">
-        <v>2.860972</v>
+        <v>2.8609719999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.480000</v>
+        <v>1305.48</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.327000</v>
+        <v>-202.327</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>10310.085615</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.863913</v>
+        <v>2.8639130000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.840000</v>
+        <v>1316.84</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.319000</v>
+        <v>-184.31899999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>10320.257111</v>
+        <v>10320.257111000001</v>
       </c>
       <c r="V20" s="1">
-        <v>2.866738</v>
+        <v>2.8667379999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.860000</v>
+        <v>1329.86</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.917000</v>
+        <v>-170.917</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>10330.161685</v>
+        <v>10330.161684999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.869489</v>
+        <v>2.8694890000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.010000</v>
+        <v>1347.01</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.917000</v>
+        <v>-168.917</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>10340.586635</v>
@@ -5197,43 +5613,43 @@
         <v>2.872385</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.840000</v>
+        <v>1359.84</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.889000</v>
+        <v>-178.88900000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>10350.800251</v>
+        <v>10350.800251000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.875222</v>
+        <v>2.8752219999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.350000</v>
+        <v>1380.35</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.112000</v>
+        <v>-209.11199999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>10361.753901</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.878265</v>
+        <v>2.8782649999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1401.900000</v>
+        <v>1401.9</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.418000</v>
+        <v>-253.41800000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>10372.817132</v>
@@ -5242,121 +5658,121 @@
         <v>2.881338</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.340000</v>
+        <v>1426.34</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.934000</v>
+        <v>-313.93400000000003</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>10383.829806</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.884397</v>
+        <v>2.8843969999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1445.560000</v>
+        <v>1445.56</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.457000</v>
+        <v>-366.45699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>10394.815696</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.887449</v>
+        <v>2.8874490000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1530.280000</v>
+        <v>1530.28</v>
       </c>
       <c r="BG20" s="1">
-        <v>-617.300000</v>
+        <v>-617.29999999999995</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>10405.396880</v>
+        <v>10405.39688</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.890388</v>
+        <v>2.8903880000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.690000</v>
+        <v>1683.69</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1068.070000</v>
+        <v>-1068.07</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>10416.327682</v>
+        <v>10416.327681999999</v>
       </c>
       <c r="BO20" s="1">
         <v>2.893424</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.340000</v>
+        <v>1977.34</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1851.530000</v>
+        <v>-1851.53</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>10427.220851</v>
       </c>
       <c r="BT20" s="1">
-        <v>2.896450</v>
+        <v>2.8964500000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>2364.760000</v>
+        <v>2364.7600000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2755.260000</v>
+        <v>-2755.26</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>10438.821781</v>
+        <v>10438.821781000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.899673</v>
+        <v>2.8996729999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.910000</v>
+        <v>2852.91</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3749.300000</v>
+        <v>-3749.3</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>10451.560031</v>
+        <v>10451.560031000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.903211</v>
+        <v>2.9032110000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>4280.930000</v>
+        <v>4280.93</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6147.470000</v>
+        <v>-6147.47</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>10279.212631</v>
       </c>
@@ -5364,375 +5780,375 @@
         <v>2.855337</v>
       </c>
       <c r="C21" s="1">
-        <v>1244.270000</v>
+        <v>1244.27</v>
       </c>
       <c r="D21" s="1">
-        <v>-306.123000</v>
+        <v>-306.12299999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>10289.661354</v>
       </c>
       <c r="G21" s="1">
-        <v>2.858239</v>
+        <v>2.8582390000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.560000</v>
+        <v>1269.56</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.245000</v>
+        <v>-264.245</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>10299.850230</v>
+        <v>10299.85023</v>
       </c>
       <c r="L21" s="1">
-        <v>2.861070</v>
+        <v>2.8610699999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.420000</v>
+        <v>1305.42</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.134000</v>
+        <v>-202.13399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>10310.434302</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.864010</v>
+        <v>2.8640099999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.910000</v>
+        <v>1316.91</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.252000</v>
+        <v>-184.25200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>10320.605761</v>
+        <v>10320.605761000001</v>
       </c>
       <c r="V21" s="1">
         <v>2.866835</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.910000</v>
+        <v>1329.91</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.868000</v>
+        <v>-170.86799999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>10330.813427</v>
+        <v>10330.813426999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.869670</v>
+        <v>2.8696700000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.020000</v>
+        <v>1347.02</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.865000</v>
+        <v>-168.86500000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>10340.971991</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.872492</v>
+        <v>2.8724919999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>1359.830000</v>
+        <v>1359.83</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.897000</v>
+        <v>-178.89699999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>10351.188617</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.875330</v>
+        <v>2.8753299999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.157000</v>
+        <v>-209.15700000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>10362.116938</v>
+        <v>10362.116937999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.878366</v>
+        <v>2.8783660000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1401.910000</v>
+        <v>1401.91</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.422000</v>
+        <v>-253.422</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>10373.184669</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.881440</v>
+        <v>2.88144</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.330000</v>
+        <v>1426.33</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.948000</v>
+        <v>-313.94799999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>10384.189934</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.884497</v>
+        <v>2.8844970000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1445.550000</v>
+        <v>1445.55</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.499000</v>
+        <v>-366.49900000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>10395.231838</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.887564</v>
+        <v>2.8875639999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1530.260000</v>
+        <v>1530.26</v>
       </c>
       <c r="BG21" s="1">
-        <v>-617.287000</v>
+        <v>-617.28700000000003</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>10405.816992</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.890505</v>
+        <v>2.8905050000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.540000</v>
+        <v>1683.54</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1068.130000</v>
+        <v>-1068.1300000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>10416.733938</v>
+        <v>10416.733937999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.893537</v>
+        <v>2.8935369999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1977.220000</v>
+        <v>1977.22</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1851.430000</v>
+        <v>-1851.43</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>10427.648867</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.896569</v>
+        <v>2.8965689999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2365.300000</v>
+        <v>2365.3000000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2755.160000</v>
+        <v>-2755.16</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>10439.279588</v>
+        <v>10439.279587999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.899800</v>
+        <v>2.8997999999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2852.740000</v>
+        <v>2852.74</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3749.240000</v>
+        <v>-3749.24</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>10452.075378</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.903354</v>
+        <v>2.9033540000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>4282.160000</v>
+        <v>4282.16</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6142.820000</v>
+        <v>-6142.82</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>10279.553879</v>
+        <v>10279.553878999999</v>
       </c>
       <c r="B22" s="1">
         <v>2.855432</v>
       </c>
       <c r="C22" s="1">
-        <v>1243.750000</v>
+        <v>1243.75</v>
       </c>
       <c r="D22" s="1">
-        <v>-306.361000</v>
+        <v>-306.36099999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>10290.007065</v>
       </c>
       <c r="G22" s="1">
-        <v>2.858335</v>
+        <v>2.8583349999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.920000</v>
+        <v>1269.92</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.503000</v>
+        <v>-264.50299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>10300.194923</v>
+        <v>10300.194922999999</v>
       </c>
       <c r="L22" s="1">
-        <v>2.861165</v>
+        <v>2.8611650000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.280000</v>
+        <v>1305.28</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.498000</v>
+        <v>-202.49799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>10311.083070</v>
+        <v>10311.083070000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.864190</v>
+        <v>2.8641899999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.030000</v>
+        <v>1317.03</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.249000</v>
+        <v>-184.249</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>10321.173184</v>
+        <v>10321.173183999999</v>
       </c>
       <c r="V22" s="1">
-        <v>2.866993</v>
+        <v>2.8669929999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.890000</v>
+        <v>1329.89</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.929000</v>
+        <v>-170.929</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>10331.206755</v>
+        <v>10331.206754999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.869780</v>
+        <v>2.86978</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.830000</v>
+        <v>1346.83</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.957000</v>
+        <v>-168.95699999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>10341.316742</v>
+        <v>10341.316742000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.872588</v>
+        <v>2.8725879999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1359.850000</v>
+        <v>1359.85</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.889000</v>
+        <v>-178.88900000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>10351.537271</v>
+        <v>10351.537270999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.875427</v>
+        <v>2.8754270000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.370000</v>
+        <v>1380.37</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.129000</v>
+        <v>-209.12899999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>10362.476041</v>
@@ -5741,28 +6157,28 @@
         <v>2.878466</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1401.880000</v>
+        <v>1401.88</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.385000</v>
+        <v>-253.38499999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>10373.549264</v>
+        <v>10373.549263999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.881541</v>
+        <v>2.8815409999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.360000</v>
+        <v>1426.36</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.886000</v>
+        <v>-313.88600000000002</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>10384.599628</v>
@@ -5771,165 +6187,165 @@
         <v>2.884611</v>
       </c>
       <c r="BA22" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.500000</v>
+        <v>-366.5</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>10395.538862</v>
+        <v>10395.538861999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.887650</v>
+        <v>2.8876499999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1530.230000</v>
+        <v>1530.23</v>
       </c>
       <c r="BG22" s="1">
-        <v>-617.309000</v>
+        <v>-617.30899999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>10406.174079</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.890604</v>
+        <v>2.8906040000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.600000</v>
+        <v>1683.6</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1068.190000</v>
+        <v>-1068.19</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>10417.131697</v>
+        <v>10417.131697000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.893648</v>
+        <v>2.8936480000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1977.140000</v>
+        <v>1977.14</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1851.390000</v>
+        <v>-1851.39</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>10428.076917</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.896688</v>
+        <v>2.8966880000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>2366.010000</v>
+        <v>2366.0100000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2755.140000</v>
+        <v>-2755.14</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>10439.731444</v>
+        <v>10439.731443999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.899925</v>
+        <v>2.8999250000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2853.120000</v>
+        <v>2853.12</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3748.690000</v>
+        <v>-3748.69</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>10452.627890</v>
+        <v>10452.62789</v>
       </c>
       <c r="CD22" s="1">
         <v>2.903508</v>
       </c>
       <c r="CE22" s="1">
-        <v>4285.370000</v>
+        <v>4285.37</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6131.320000</v>
+        <v>-6131.32</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>10279.897143</v>
       </c>
       <c r="B23" s="1">
-        <v>2.855527</v>
+        <v>2.8555269999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1244.260000</v>
+        <v>1244.26</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.139000</v>
+        <v>-306.13900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>10290.656825</v>
       </c>
       <c r="G23" s="1">
-        <v>2.858516</v>
+        <v>2.8585159999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.490000</v>
+        <v>1269.49</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.884000</v>
+        <v>-264.88400000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>10300.860064</v>
       </c>
       <c r="L23" s="1">
-        <v>2.861350</v>
+        <v>2.8613499999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.890000</v>
+        <v>1304.8900000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.506000</v>
+        <v>-202.506</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>10311.477390</v>
+        <v>10311.47739</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.864299</v>
+        <v>2.8642989999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.050000</v>
+        <v>1317.05</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.311000</v>
+        <v>-184.31100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>10321.314047</v>
@@ -5938,43 +6354,43 @@
         <v>2.867032</v>
       </c>
       <c r="W23" s="1">
-        <v>1329.900000</v>
+        <v>1329.9</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.832000</v>
+        <v>-170.83199999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>10331.552963</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.869876</v>
+        <v>2.8698760000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.070000</v>
+        <v>1347.07</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.006000</v>
+        <v>-169.006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>10341.660437</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.872683</v>
+        <v>2.8726829999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.840000</v>
+        <v>1359.84</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.825000</v>
+        <v>-178.82499999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>10351.886988</v>
@@ -5983,13 +6399,13 @@
         <v>2.875524</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.146000</v>
+        <v>-209.14599999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>10362.900652</v>
@@ -5998,150 +6414,150 @@
         <v>2.878584</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1401.860000</v>
+        <v>1401.86</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.398000</v>
+        <v>-253.398</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>10373.975794</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.881660</v>
+        <v>2.8816600000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.390000</v>
+        <v>1426.39</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.954000</v>
+        <v>-313.95400000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>10384.906620</v>
+        <v>10384.90662</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.884696</v>
+        <v>2.8846959999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.481000</v>
+        <v>-366.48099999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>10395.897507</v>
       </c>
       <c r="BE23" s="1">
-        <v>2.887749</v>
+        <v>2.8877489999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1530.240000</v>
+        <v>1530.24</v>
       </c>
       <c r="BG23" s="1">
-        <v>-617.287000</v>
+        <v>-617.28700000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>10406.549092</v>
+        <v>10406.549091999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.890708</v>
+        <v>2.8907080000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.650000</v>
+        <v>1683.65</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1068.070000</v>
+        <v>-1068.07</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>10417.554290</v>
+        <v>10417.55429</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.893765</v>
+        <v>2.8937650000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1977.150000</v>
+        <v>1977.15</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1851.510000</v>
+        <v>-1851.51</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>10428.489095</v>
+        <v>10428.489095000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.896803</v>
+        <v>2.8968029999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>2367.240000</v>
+        <v>2367.2399999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2755.830000</v>
+        <v>-2755.83</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>10440.148084</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.900041</v>
+        <v>2.9000409999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.760000</v>
+        <v>2852.76</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3748.200000</v>
+        <v>-3748.2</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>10453.157123</v>
+        <v>10453.157123000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.903655</v>
+        <v>2.9036550000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4279.820000</v>
+        <v>4279.82</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6147.790000</v>
+        <v>-6147.79</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>10280.543930</v>
+        <v>10280.54393</v>
       </c>
       <c r="B24" s="1">
-        <v>2.855707</v>
+        <v>2.8557070000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.270000</v>
+        <v>1244.27</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.076000</v>
+        <v>-306.07600000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>10291.037752</v>
@@ -6150,43 +6566,43 @@
         <v>2.858622</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.420000</v>
+        <v>1270.42</v>
       </c>
       <c r="I24" s="1">
-        <v>-265.494000</v>
+        <v>-265.49400000000003</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>10301.233384</v>
+        <v>10301.233383999999</v>
       </c>
       <c r="L24" s="1">
-        <v>2.861454</v>
+        <v>2.8614540000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.230000</v>
+        <v>1305.23</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.364000</v>
+        <v>-202.364</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>10311.829550</v>
+        <v>10311.82955</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.864397</v>
+        <v>2.8643969999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.960000</v>
+        <v>1316.96</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.316000</v>
+        <v>-184.316</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>10321.658801</v>
@@ -6195,13 +6611,13 @@
         <v>2.867127</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.790000</v>
+        <v>1329.79</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.918000</v>
+        <v>-170.91800000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>10331.906147</v>
@@ -6210,300 +6626,300 @@
         <v>2.869974</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.970000</v>
+        <v>1346.97</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.848000</v>
+        <v>-168.84800000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>10342.069668</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.872797</v>
+        <v>2.8727969999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1359.840000</v>
+        <v>1359.84</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.883000</v>
+        <v>-178.88300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>10352.295656</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.875638</v>
+        <v>2.8756379999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.340000</v>
+        <v>1380.34</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.124000</v>
+        <v>-209.124</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>10363.194746</v>
+        <v>10363.194745999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.878665</v>
+        <v>2.8786649999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1401.900000</v>
+        <v>1401.9</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.380000</v>
+        <v>-253.38</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>10374.277883</v>
+        <v>10374.277883000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.881744</v>
+        <v>2.8817439999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.370000</v>
+        <v>1426.37</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.907000</v>
+        <v>-313.90699999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>10385.266219</v>
+        <v>10385.266218999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.884796</v>
+        <v>2.8847960000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1445.580000</v>
+        <v>1445.58</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.486000</v>
+        <v>-366.48599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>10396.258245</v>
+        <v>10396.258245000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.887850</v>
+        <v>2.8878499999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1530.240000</v>
+        <v>1530.24</v>
       </c>
       <c r="BG24" s="1">
-        <v>-617.296000</v>
+        <v>-617.29600000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>10406.923908</v>
+        <v>10406.923908000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.890812</v>
+        <v>2.8908119999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.590000</v>
+        <v>1683.59</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1068.100000</v>
+        <v>-1068.0999999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>10417.971456</v>
+        <v>10417.971455999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.893881</v>
+        <v>2.8938809999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1977.300000</v>
+        <v>1977.3</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1851.510000</v>
+        <v>-1851.51</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>10429.346177</v>
+        <v>10429.346176999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.897041</v>
+        <v>2.8970410000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2367.460000</v>
+        <v>2367.46</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2755.970000</v>
+        <v>-2755.97</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>10440.571023</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.900159</v>
+        <v>2.9001589999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2852.120000</v>
+        <v>2852.12</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3748.520000</v>
+        <v>-3748.52</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>10453.673954</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.903798</v>
+        <v>2.9037980000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4302.950000</v>
+        <v>4302.95</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6146.500000</v>
+        <v>-6146.5</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>10280.921381</v>
       </c>
       <c r="B25" s="1">
-        <v>2.855811</v>
+        <v>2.8558110000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1244.070000</v>
+        <v>1244.07</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.200000</v>
+        <v>-306.2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>10291.383463</v>
       </c>
       <c r="G25" s="1">
-        <v>2.858718</v>
+        <v>2.8587180000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.430000</v>
+        <v>1269.43</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.845000</v>
+        <v>-264.84500000000003</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>10301.577739</v>
       </c>
       <c r="L25" s="1">
-        <v>2.861549</v>
+        <v>2.8615490000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.270000</v>
+        <v>1305.27</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.139000</v>
+        <v>-202.13900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>10312.178731</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.864494</v>
+        <v>2.8644940000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.870000</v>
+        <v>1316.87</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.329000</v>
+        <v>-184.32900000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>10322.067503</v>
       </c>
       <c r="V25" s="1">
-        <v>2.867241</v>
+        <v>2.8672409999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.870000</v>
+        <v>1329.87</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.950000</v>
+        <v>-170.95</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>10332.313954</v>
+        <v>10332.313953999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.870087</v>
+        <v>2.8700869999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.820000</v>
+        <v>1346.82</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.000000</v>
+        <v>-169</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>10342.348389</v>
+        <v>10342.348389000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.872875</v>
+        <v>2.8728750000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1359.830000</v>
+        <v>1359.83</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.817000</v>
+        <v>-178.81700000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>10352.593782</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.875720</v>
+        <v>2.8757199999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.330000</v>
+        <v>1380.33</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.123000</v>
+        <v>-209.12299999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>10363.552856</v>
@@ -6512,375 +6928,375 @@
         <v>2.878765</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1401.920000</v>
+        <v>1401.92</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.403000</v>
+        <v>-253.40299999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>10374.806586</v>
+        <v>10374.806586000001</v>
       </c>
       <c r="AU25" s="1">
         <v>2.881891</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.390000</v>
+        <v>1426.39</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.947000</v>
+        <v>-313.947</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>10385.624826</v>
+        <v>10385.624825999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.884896</v>
+        <v>2.8848959999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1445.590000</v>
+        <v>1445.59</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.479000</v>
+        <v>-366.47899999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>10396.983707</v>
+        <v>10396.983706999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.888051</v>
+        <v>2.8880509999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1530.290000</v>
+        <v>1530.29</v>
       </c>
       <c r="BG25" s="1">
-        <v>-617.279000</v>
+        <v>-617.279</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>10407.699277</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.891028</v>
+        <v>2.8910279999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.600000</v>
+        <v>1683.6</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1068.050000</v>
+        <v>-1068.05</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>10418.368255</v>
+        <v>10418.368254999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.893991</v>
+        <v>2.8939910000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1977.140000</v>
+        <v>1977.14</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1851.330000</v>
+        <v>-1851.33</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>10429.779680</v>
+        <v>10429.77968</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.897161</v>
+        <v>2.8971610000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2368.060000</v>
+        <v>2368.06</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2756.160000</v>
+        <v>-2756.16</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>10441.000674</v>
+        <v>10441.000674000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.900278</v>
+        <v>2.9002780000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.870000</v>
+        <v>2852.87</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3748.620000</v>
+        <v>-3748.62</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>10454.516656</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.904032</v>
+        <v>2.9040319999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4284.190000</v>
+        <v>4284.1899999999996</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6151.380000</v>
+        <v>-6151.38</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>10281.265574</v>
+        <v>10281.265573999999</v>
       </c>
       <c r="B26" s="1">
-        <v>2.855907</v>
+        <v>2.8559070000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.160000</v>
+        <v>1244.1600000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.337000</v>
+        <v>-306.33699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>10291.728183</v>
+        <v>10291.728182999999</v>
       </c>
       <c r="G26" s="1">
         <v>2.858813</v>
       </c>
       <c r="H26" s="1">
-        <v>1270.200000</v>
+        <v>1270.2</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.610000</v>
+        <v>-264.61</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>10301.922955</v>
       </c>
       <c r="L26" s="1">
-        <v>2.861645</v>
+        <v>2.8616450000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.110000</v>
+        <v>1305.1099999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.420000</v>
+        <v>-202.42</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>10312.585948</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.864607</v>
+        <v>2.8646069999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.910000</v>
+        <v>1316.91</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.255000</v>
+        <v>-184.255</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>10322.375513</v>
+        <v>10322.375513000001</v>
       </c>
       <c r="V26" s="1">
         <v>2.867327</v>
       </c>
       <c r="W26" s="1">
-        <v>1329.880000</v>
+        <v>1329.88</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.859000</v>
+        <v>-170.85900000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>10332.602994</v>
+        <v>10332.602994000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.870167</v>
+        <v>2.8701669999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1346.790000</v>
+        <v>1346.79</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.818000</v>
+        <v>-168.81800000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>10342.694100</v>
+        <v>10342.694100000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.872971</v>
+        <v>2.8729710000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1359.790000</v>
+        <v>1359.79</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.827000</v>
+        <v>-178.827</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>10352.944928</v>
+        <v>10352.944928000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.875818</v>
+        <v>2.8758180000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.300000</v>
+        <v>1380.3</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.154000</v>
+        <v>-209.154</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>10363.913480</v>
+        <v>10363.913479999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.878865</v>
+        <v>2.8788649999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1401.870000</v>
+        <v>1401.87</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.350000</v>
+        <v>-253.35</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>10375.325899</v>
+        <v>10375.325898999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.882035</v>
+        <v>2.8820350000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.350000</v>
+        <v>1426.35</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.924000</v>
+        <v>-313.92399999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>10386.343530</v>
+        <v>10386.34353</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.885095</v>
+        <v>2.8850950000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1445.550000</v>
+        <v>1445.55</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.504000</v>
+        <v>-366.50400000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>10397.344331</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.888151</v>
+        <v>2.8881510000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1530.280000</v>
+        <v>1530.28</v>
       </c>
       <c r="BG26" s="1">
-        <v>-617.283000</v>
+        <v>-617.28300000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>10408.074749</v>
+        <v>10408.074748999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.891132</v>
+        <v>2.8911319999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.590000</v>
+        <v>1683.59</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1068.100000</v>
+        <v>-1068.0999999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>10418.767008</v>
+        <v>10418.767008000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.894102</v>
+        <v>2.8941020000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1977.180000</v>
+        <v>1977.18</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1851.510000</v>
+        <v>-1851.51</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>10430.481060</v>
+        <v>10430.48106</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.897356</v>
+        <v>2.8973559999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>2367.700000</v>
+        <v>2367.6999999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2757.120000</v>
+        <v>-2757.12</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>10441.721857</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.900478</v>
+        <v>2.9004780000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2852.750000</v>
+        <v>2852.75</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3749.100000</v>
+        <v>-3749.1</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>10454.757711</v>
@@ -6889,15 +7305,16 @@
         <v>2.904099</v>
       </c>
       <c r="CE26" s="1">
-        <v>4282.010000</v>
+        <v>4282.01</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6151.710000</v>
+        <v>-6151.71</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>